--- a/Ensamble_Accuracy_Tester.xlsx
+++ b/Ensamble_Accuracy_Tester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laura\Desktop\Andres Florez\ARCAD\Ensamble\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4A8F3D-EEDD-4B28-A15D-51EF1AE0A31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A63B0AD-7F4F-46F5-8C2A-472BE3929D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Date</t>
+    <t>toggle_false</t>
   </si>
   <si>
-    <t>toggle_false</t>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -89,7 +89,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:B450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,10 +406,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
